--- a/소득보장.xlsx
+++ b/소득보장.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeewo\Desktop\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeewo\Desktop\Dataset\Chatbot_Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -209,7 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +222,22 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -248,11 +264,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -538,188 +557,189 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.125" customWidth="1"/>
-    <col min="2" max="2" width="200.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="200.625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="54" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" ht="54" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" ht="54" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="99" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" ht="54" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" ht="54" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" ht="54" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:2" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="132" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:2" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="132" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:2" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="132" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:2" ht="108" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:2" ht="54" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="132" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:2" ht="81" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:2" ht="54" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="99" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:2" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:2" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
     </row>
